--- a/Device_2/Final_Data/output_reversed_Final_23_Nov_test12.xlsx
+++ b/Device_2/Final_Data/output_reversed_Final_23_Nov_test12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="263">
   <si>
     <t xml:space="preserve">Device -2 </t>
   </si>
@@ -1303,13 +1303,25 @@
     <t xml:space="preserve">512
 -325
 2950</t>
+  </si>
+  <si>
+    <t>Legends</t>
+  </si>
+  <si>
+    <t>x_Position</t>
+  </si>
+  <si>
+    <t>y_Position</t>
+  </si>
+  <si>
+    <t>z_Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="9">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -1323,18 +1335,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.000000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18.000000"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font/>
     <font>
-      <color indexed="64"/>
+      <sz val="12.000000"/>
     </font>
-    <font/>
+    <font>
+      <sz val="16.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16.000000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1347,8 +1384,20 @@
         <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+        <bgColor indexed="47"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -1356,24 +1405,45 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="3" fillId="4" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="8" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1884,7 +1954,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -2612,7 +2682,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" ht="42.75">
+    <row r="17" ht="49.5">
       <c r="A17" s="3" t="s">
         <v>227</v>
       </c>
@@ -2662,7 +2732,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" ht="42.75">
+    <row r="18" ht="49.5">
       <c r="A18" s="3" t="s">
         <v>243</v>
       </c>
@@ -2711,6 +2781,29 @@
       <c r="P18" s="3" t="s">
         <v>258</v>
       </c>
+    </row>
+    <row r="20" ht="21">
+      <c r="H20" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" ht="21">
+      <c r="H21" s="4"/>
+      <c r="I21" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" ht="21">
+      <c r="H22" s="4"/>
+      <c r="I22" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J22" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/Device_2/Final_Data/output_reversed_Final_23_Nov_test12.xlsx
+++ b/Device_2/Final_Data/output_reversed_Final_23_Nov_test12.xlsx
@@ -1321,7 +1321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -1354,6 +1354,13 @@
       <scheme val="minor"/>
     </font>
     <font/>
+    <font>
+      <b/>
+      <sz val="14.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12.000000"/>
     </font>
@@ -1427,17 +1434,18 @@
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="3" fillId="4" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
     <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" quotePrefix="0" pivotButton="0"/>
     <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="8" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="9" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1954,7 +1962,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1981,829 +1989,830 @@
     </row>
     <row r="2" ht="42.75" customHeight="1">
       <c r="A2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" ht="42.75" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" ht="42.75" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="42.75" customHeight="1">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" ht="42.75" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="7" ht="42.75" customHeight="1">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" ht="42.75" customHeight="1">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" ht="42.75" customHeight="1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" ht="42.75" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" ht="42.75" customHeight="1">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="12" ht="42.75" customHeight="1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="13" ht="42.75" customHeight="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15" ht="42.75" customHeight="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="16" ht="42.75" customHeight="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="N16" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="17" ht="49.5">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M17" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="N17" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="18" ht="49.5">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="P18" s="4" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="20" ht="21">
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="J20" s="5"/>
+      <c r="J20" s="6"/>
     </row>
     <row r="21" ht="21">
-      <c r="H21" s="4"/>
-      <c r="I21" s="5" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="J21" s="5"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" ht="21">
-      <c r="H22" s="4"/>
-      <c r="I22" s="5" t="s">
+      <c r="H22" s="5"/>
+      <c r="I22" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
